--- a/Sanisphere_example.xlsx
+++ b/Sanisphere_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narim\Desktop\python_project\UA_Data_importation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29870D22-56F2-45B4-A302-AA2B1823A392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2D2EDD-2CE9-40E9-A514-1D70DDE12B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7E51B1F-06ED-4ACC-9AA7-F91FAF468F48}"/>
   </bookViews>
@@ -8916,7 +8916,7 @@
   <dimension ref="A1:F1466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -55370,26 +55370,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7179b71e-1a0f-4508-873a-227794fe2e40">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a6be98de-f340-45ec-a82b-db092ad562f2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100083769452FEC53428EA0A425AD277BEC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="235d348c0fc36a4c730e9b74ec302b75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7179b71e-1a0f-4508-873a-227794fe2e40" xmlns:ns3="a6be98de-f340-45ec-a82b-db092ad562f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af65fae3bd14768e11f24ba2e62b2ac3" ns2:_="" ns3:_="">
     <xsd:import namespace="7179b71e-1a0f-4508-873a-227794fe2e40"/>
@@ -55632,26 +55612,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B59116-A094-450F-A51D-7CB680ED8D1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7179b71e-1a0f-4508-873a-227794fe2e40"/>
-    <ds:schemaRef ds:uri="a6be98de-f340-45ec-a82b-db092ad562f2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B3FB2B9-500E-4089-8F1D-45FBE7AE2E3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7179b71e-1a0f-4508-873a-227794fe2e40">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a6be98de-f340-45ec-a82b-db092ad562f2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BEEC6D9-EF2C-4D6B-8000-6479D9A94748}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -55668,4 +55649,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B3FB2B9-500E-4089-8F1D-45FBE7AE2E3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79B59116-A094-450F-A51D-7CB680ED8D1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7179b71e-1a0f-4508-873a-227794fe2e40"/>
+    <ds:schemaRef ds:uri="a6be98de-f340-45ec-a82b-db092ad562f2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>